--- a/biology/Médecine/Bloc_opératoire/Bloc_opératoire.xlsx
+++ b/biology/Médecine/Bloc_opératoire/Bloc_opératoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bloc_op%C3%A9ratoire</t>
+          <t>Bloc_opératoire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bloc opératoire est une structure de l’hôpital où sont pratiquées les interventions chirurgicales et les gestes d’anesthésie-réanimation nécessaires au bon déroulement de l’intervention.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bloc_op%C3%A9ratoire</t>
+          <t>Bloc_opératoire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Mission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa mission est d'offrir un cadre performant à toutes interventions, électives ou d’urgence, pour les patients présentant des affections chirurgicales réglées ou urgentes.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bloc_op%C3%A9ratoire</t>
+          <t>Bloc_opératoire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Spécificités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet espace doit donc être rendu étanche au reste de l’hôpital par une série de séparations avec les structures extérieures. Il permet la prise en charge globale et individualisée des patients par une équipe interdisciplinaire. Cette équipe réunit le plus souvent, d'un côté, une équipe anesthésique composée de médecins anesthésistes et d'infirmiers anesthésistes et de l'autre une équipe chirurgicale composé de chirurgiens et d'infirmiers de bloc opératoire. D'autres intervenants peuvent travailler au bloc opératoire : techniciens en stérilisation, radiologues, gastro-entérologues, pneumologues, aide-soignant, brancardier... Les actes et opérations pratiquées se font sous anesthésie (générale ou locale selon l'acte à effectuer et l'état de santé du patient).
 Cependant, son implantation au sein de l’hôpital devra tenir compte des relations du bloc opératoire avec le service des urgences, le département d’anesthésie-réanimation, la réanimation, les laboratoires et l’imagerie, la banque du sang, la stérilisation, la pharmacie et les services hospitaliers.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bloc_op%C3%A9ratoire</t>
+          <t>Bloc_opératoire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Salles opératoires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il ne faut pas confondre "bloc opératoire" et "salle opératoire". Un bloc est un ensemble de salles opératoires (entre 5 et 10 salles d'opération par bloc en général), de couloirs, de vestiaires chirurgicaux, de salle de réveil, de bureau.
 </t>
